--- a/UnitTestProjectFramework1/Repository/C# data.xlsx
+++ b/UnitTestProjectFramework1/Repository/C# data.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9424d22af1980ad5/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioRepos\UnitTestProjectFramework1\UnitTestProjectFramework1\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9361AC54-9161-44E0-A0B9-D082D6C1EA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A769A577-D856-4903-B067-A9DC05919C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{647B1864-10DF-4BA8-AA45-4659A5D16BB2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
